--- a/data/final/price decline since release date - DJI.xlsx
+++ b/data/final/price decline since release date - DJI.xlsx
@@ -8150,10 +8150,10 @@
         <v>0.6041275797373357</v>
       </c>
       <c r="F342">
-        <v>0.5945265919389453</v>
+        <v>0.5945027426663482</v>
       </c>
       <c r="G342">
-        <v>0.6984201087841682</v>
+        <v>0.6984153389296488</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8172,8 +8172,11 @@
       <c r="E343">
         <v>0.6077012418475831</v>
       </c>
+      <c r="F343">
+        <v>0.5953756260434052</v>
+      </c>
       <c r="G343">
-        <v>0.722573124500056</v>
+        <v>0.6971336248087259</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8192,8 +8195,11 @@
       <c r="E344">
         <v>0.6104708299830248</v>
       </c>
+      <c r="F344">
+        <v>0.5963200572382538</v>
+      </c>
       <c r="G344">
-        <v>0.7204027156562971</v>
+        <v>0.6955861839726885</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8212,8 +8218,11 @@
       <c r="E345">
         <v>0.6137568122933973</v>
       </c>
+      <c r="F345">
+        <v>0.5972525637968038</v>
+      </c>
       <c r="G345">
-        <v>0.7225890772393948</v>
+        <v>0.6975217745508766</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8232,8 +8241,11 @@
       <c r="E346">
         <v>0.6173304744036446</v>
       </c>
+      <c r="F346">
+        <v>0.5981850703553537</v>
+      </c>
       <c r="G346">
-        <v>0.7255313920352552</v>
+        <v>0.7000621276992749</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13020,6 +13032,9 @@
       <c r="A586" s="1">
         <v>584</v>
       </c>
+      <c r="B586">
+        <v>0.6667223033590634</v>
+      </c>
       <c r="C586">
         <v>0.7927461139896379</v>
       </c>
@@ -13030,13 +13045,16 @@
         <v>0.4996247654784236</v>
       </c>
       <c r="G586">
-        <v>0.6036303702273118</v>
+        <v>0.6194033535102497</v>
       </c>
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1">
         <v>585</v>
       </c>
+      <c r="B587">
+        <v>0.6667223033590634</v>
+      </c>
       <c r="C587">
         <v>0.7927461139896379</v>
       </c>
@@ -13047,13 +13065,16 @@
         <v>0.4996247654784236</v>
       </c>
       <c r="G587">
-        <v>0.6039606757599295</v>
+        <v>0.6196510826597129</v>
       </c>
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1">
         <v>586</v>
       </c>
+      <c r="B588">
+        <v>0.6667223033590634</v>
+      </c>
       <c r="C588">
         <v>0.7927461139896379</v>
       </c>
@@ -13064,13 +13085,16 @@
         <v>0.4996247654784236</v>
       </c>
       <c r="G588">
-        <v>0.6042915318017682</v>
+        <v>0.6198992246910919</v>
       </c>
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1">
         <v>587</v>
       </c>
+      <c r="B589">
+        <v>0.6667223033590634</v>
+      </c>
       <c r="C589">
         <v>0.7927461139896379</v>
       </c>
@@ -13081,7 +13105,7 @@
         <v>0.4996247654784236</v>
       </c>
       <c r="G589">
-        <v>0.6054420960737198</v>
+        <v>0.6207621478950556</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -16579,8 +16603,11 @@
       <c r="D795">
         <v>0.5134483897605301</v>
       </c>
+      <c r="E795">
+        <v>0.4999865987670867</v>
+      </c>
       <c r="G795">
-        <v>0.4942026059338059</v>
+        <v>0.4961306035448995</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -16593,8 +16620,11 @@
       <c r="D796">
         <v>0.5134483897605301</v>
       </c>
+      <c r="E796">
+        <v>0.4997230411864559</v>
+      </c>
       <c r="G796">
-        <v>0.4942026059338059</v>
+        <v>0.4960427510180226</v>
       </c>
     </row>
     <row r="797" spans="1:7">
@@ -16607,8 +16637,11 @@
       <c r="D797">
         <v>0.5134483897605301</v>
       </c>
+      <c r="E797">
+        <v>0.4994594836058251</v>
+      </c>
       <c r="G797">
-        <v>0.4942026059338059</v>
+        <v>0.4959548984911457</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -16621,8 +16654,11 @@
       <c r="D798">
         <v>0.5236696944673839</v>
       </c>
+      <c r="E798">
+        <v>0.4991959260251943</v>
+      </c>
       <c r="G798">
-        <v>0.4993132582872328</v>
+        <v>0.49927414753322</v>
       </c>
     </row>
     <row r="799" spans="1:7">
@@ -19166,8 +19202,11 @@
       <c r="C980">
         <v>0.5682210708117453</v>
       </c>
+      <c r="D980">
+        <v>0.5929975227085074</v>
+      </c>
       <c r="G980">
-        <v>0.5682210708117453</v>
+        <v>0.5806092967601264</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -19177,8 +19216,11 @@
       <c r="C981">
         <v>0.5682210708117453</v>
       </c>
+      <c r="D981">
+        <v>0.5877704376548328</v>
+      </c>
       <c r="G981">
-        <v>0.5682210708117453</v>
+        <v>0.5779957542332891</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -19188,8 +19230,11 @@
       <c r="C982">
         <v>0.5682210708117453</v>
       </c>
+      <c r="D982">
+        <v>0.5825433526011582</v>
+      </c>
       <c r="G982">
-        <v>0.5682210708117453</v>
+        <v>0.5753822117064518</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -19199,8 +19244,11 @@
       <c r="C983">
         <v>0.5682210708117453</v>
       </c>
+      <c r="D983">
+        <v>0.5773162675474836</v>
+      </c>
       <c r="G983">
-        <v>0.5682210708117453</v>
+        <v>0.5727686691796144</v>
       </c>
     </row>
     <row r="984" spans="1:7">
